--- a/biology/Zoologie/Carpophage_de_Finsch/Carpophage_de_Finsch.xlsx
+++ b/biology/Zoologie/Carpophage_de_Finsch/Carpophage_de_Finsch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ducula finschii
 Le Carpophage de Finsch (Ducula finschii (Ramsay, 1882)) est une espèce d'oiseaux appartenant à la famille des Columbidae.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure 35 à 38 cm de longueur pour une masse d'environ 380 g.
 La tête, le cou, le haut du manteau sont gris bleuâtre pâle teinté de rose. Les rémiges primaires et les rectrices sont noir bleuâtre, ces dernières présentent une bande subterminale blanche et une terminale verte. Le reste des parties supérieures est vert émeraude à doré avec des reflets bronzes sur le manteau. Les iris sont rouges avec des cercles oculaires blancs. Le bec est noir. Les pattes sont rouges.
@@ -546,7 +560,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit sur l'archipel Bismarck en Papouasie-Nouvelle-Guinée.
 </t>
@@ -577,7 +593,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce peuple les forêts montagneuses à basse altitude.
 </t>
